--- a/biology/Botanique/Neviusia/Neviusia.xlsx
+++ b/biology/Botanique/Neviusia/Neviusia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Neviusia est un genre de plantes à fleurs de la famille des Rosaceae originaire d'Amérique du Nord.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Neviusia sont des arbustes caducs. Leurs feuilles sont simples, les stipules sont d'abord petites.
 L'inflorescence est une grappe courte, simple. Les fleurs sont hermaphrodites, attractives, elles se dressent par cinq sur de longues tiges, Les pétales sont manquantes ou grandement réduites. Les sépales sont en forme d'écailles, longs et ressemblent à du feuillage, de vert à blanc verdâtre et coupés sur le bord. L'hypanthe est en forme de soucoupe.
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre se trouve dans l'ouest et le sud-est des États-Unis, sur les pentes et les rives des rivières, où il pousse à l'ombre, dans des endroits dégagés, souvent sur des sols calcaires.
 </t>
@@ -575,7 +591,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Neviusia alabamensis
 Neviusia cliftonii
